--- a/Analysis_plan/Analysis_plan.xlsx
+++ b/Analysis_plan/Analysis_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PhD\PhD_webpage\Analysis_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010327DE-5298-4BB6-8764-436BFC632657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD7B72-DF1C-4D4E-A1C5-EFA75AFF4CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13215" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,8 +571,8 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -585,8 +585,8 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -599,8 +599,8 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -613,8 +613,8 @@
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">

--- a/Analysis_plan/Analysis_plan.xlsx
+++ b/Analysis_plan/Analysis_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PhD\PhD_webpage\Analysis_plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\PhD\PhD_webpage\Analysis_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD7B72-DF1C-4D4E-A1C5-EFA75AFF4CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19AF30-2F9D-4B20-989D-D8E891093DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>Status</t>
   </si>
@@ -72,36 +72,12 @@
     <t>Fine-mapping</t>
   </si>
   <si>
-    <t>Gene prioritisation</t>
-  </si>
-  <si>
-    <t>eQTL colocalisation</t>
-  </si>
-  <si>
-    <t>Other analyses</t>
-  </si>
-  <si>
     <t>TO BE DONE</t>
   </si>
   <si>
-    <t>IN PROGESS</t>
-  </si>
-  <si>
     <t>Thesis</t>
   </si>
   <si>
-    <t>Chapter 1</t>
-  </si>
-  <si>
-    <t>Chapter 2</t>
-  </si>
-  <si>
-    <t>Chapter 3</t>
-  </si>
-  <si>
-    <t>Chapter 4</t>
-  </si>
-  <si>
     <t>Report</t>
   </si>
   <si>
@@ -109,13 +85,61 @@
   </si>
   <si>
     <t>Genetic tests comparison</t>
+  </si>
+  <si>
+    <t>Chapter 1_Introduction</t>
+  </si>
+  <si>
+    <t>Variant to gene</t>
+  </si>
+  <si>
+    <t>Chapter 2_Phenotype definition in UK Biobank</t>
+  </si>
+  <si>
+    <t>Chapter 3_GWAS and post-GWAS</t>
+  </si>
+  <si>
+    <t>Chapter 4_Variant-to-gene analyses</t>
+  </si>
+  <si>
+    <t>Chapter 5_ Genetically driven drug discovery</t>
+  </si>
+  <si>
+    <t>Chapter 6_Discussion and conclusions</t>
+  </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>Creative Engagement Fellowship</t>
+  </si>
+  <si>
+    <t>Genetically driven drug discovery</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Possibilities of further cohorts in USA, with non-European individuals</t>
+  </si>
+  <si>
+    <t>Need to draft an analysis plan</t>
+  </si>
+  <si>
+    <t>Manuscript</t>
+  </si>
+  <si>
+    <t>GWAS 'Severe' asthma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +165,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,9 +210,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,22 +491,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="70.08984375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,10 +518,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -519,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -533,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -547,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -561,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -575,12 +594,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -589,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -603,12 +622,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -617,120 +636,185 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Analysis_plan/Analysis_plan.xlsx
+++ b/Analysis_plan/Analysis_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\PhD\PhD_webpage\Analysis_plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PhD\PhD_webpage\Analysis_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19AF30-2F9D-4B20-989D-D8E891093DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C345341B-CA08-4755-8221-B602EF1C3E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>Status</t>
   </si>
@@ -126,13 +126,28 @@
     <t>Possibilities of further cohorts in USA, with non-European individuals</t>
   </si>
   <si>
-    <t>Need to draft an analysis plan</t>
-  </si>
-  <si>
     <t>Manuscript</t>
   </si>
   <si>
     <t>GWAS 'Severe' asthma</t>
+  </si>
+  <si>
+    <t>Gene prioritisation</t>
+  </si>
+  <si>
+    <t>Gene pathway analysis, protein-protein interaction, gene-variants to bring forward for in-vitro experiments</t>
+  </si>
+  <si>
+    <t>In-vitro experiments</t>
+  </si>
+  <si>
+    <t>Create hypothesis of variant-gene mechanism for in-vitro experiments</t>
+  </si>
+  <si>
+    <t>CRISPR-Cas9 experiments</t>
+  </si>
+  <si>
+    <t>Variant to gene mapping with 8 line of evidence</t>
   </si>
 </sst>
 </file>
@@ -491,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,24 +687,21 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -698,15 +710,15 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
@@ -715,12 +727,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -728,13 +740,14 @@
       <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -748,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -762,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
@@ -776,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -787,10 +800,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -801,15 +814,43 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
